--- a/Final/test_result.xlsx
+++ b/Final/test_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\ece1786\prject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zijun Chen\Desktop\ECE1786\Proj\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05298AFE-0B36-4327-B2D4-CB6B2ED353F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC2F13-95A7-4171-BB38-E0DF004A6995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BBA8286-0F90-4C71-A594-DB64DDFA22CD}"/>
+    <workbookView xWindow="340" yWindow="6530" windowWidth="36170" windowHeight="12210" xr2:uid="{8BBA8286-0F90-4C71-A594-DB64DDFA22CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Ground_Truth</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,27 @@
   <si>
     <t>ISFJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENFJ</t>
+  </si>
+  <si>
+    <t>INTJ</t>
+  </si>
+  <si>
+    <t>ESFJ</t>
+  </si>
+  <si>
+    <t>INTP</t>
+  </si>
+  <si>
+    <t>ISTJ</t>
+  </si>
+  <si>
+    <t>ISFP</t>
+  </si>
+  <si>
+    <t>ISTP</t>
   </si>
 </sst>
 </file>
@@ -70,14 +91,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -111,7 +132,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233D8F95-3C04-4ECD-9404-9EF6A073323E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -462,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -473,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -482,6 +503,39 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Final/test_result.xlsx
+++ b/Final/test_result.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>GPT4PT</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>ENTP</t>
+  </si>
+  <si>
+    <t>ENTJ</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -85,12 +88,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -103,16 +112,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -129,10 +138,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -152,6 +161,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -351,17 +361,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -388,10 +398,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -630,12 +640,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -912,7 +922,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -939,10 +949,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1184,14 +1194,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1206,6 +1216,7 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -1219,6 +1230,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -1232,6 +1244,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -1245,6 +1258,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -1258,6 +1272,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -1271,6 +1286,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="s" s="2">
@@ -1284,6 +1300,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="s" s="2">
@@ -1297,6 +1314,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="s" s="2">
@@ -1310,19 +1328,81 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>15</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>